--- a/biology/Écologie/Proie/Proie.xlsx
+++ b/biology/Écologie/Proie/Proie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une proie est un organisme capturé vivant, tué puis consommé par un autre, qualifié de prédateur. La proie (espèce prédatée) est chassée par le prédateur (espèce prédatrice).
 Le nombre et la densité des prédateurs par rapport au nombre et à la densité des proies influent directement sur la dynamique des populations de proies et de prédateurs.
